--- a/transm/flusso_modifica_parametro.xlsx
+++ b/transm/flusso_modifica_parametro.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.solazzi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.solazzi\Documents\sviluppo\src\arduino\a01\transm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D80E2B2-D4BE-4061-A3FD-D8FD44F91D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A6CC3E-2296-4E9A-B0BA-9F944927EED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="1695" windowWidth="24570" windowHeight="12840" xr2:uid="{50B162F0-49E0-43FE-8DCC-E6BD8AF511FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{50B162F0-49E0-43FE-8DCC-E6BD8AF511FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="codifica_stringhe" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">codifica_stringhe!$A$14:$J$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>nexus 5</t>
   </si>
@@ -103,13 +107,217 @@
   </si>
   <si>
     <t>decodifica la stringa ricevuta, la presenta a video</t>
+  </si>
+  <si>
+    <t>leggi numero di skip</t>
+  </si>
+  <si>
+    <t>G07</t>
+  </si>
+  <si>
+    <t>imposta numero di skip</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>ore</t>
+  </si>
+  <si>
+    <t>leggi frequenza programma 2</t>
+  </si>
+  <si>
+    <t>G06</t>
+  </si>
+  <si>
+    <t>imposta frequenza programma 2</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>unsigned long</t>
+  </si>
+  <si>
+    <t>leggi programma 2</t>
+  </si>
+  <si>
+    <t>G05</t>
+  </si>
+  <si>
+    <t>imposta programma 2</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>si/no</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>leggi abilitazione programma 2</t>
+  </si>
+  <si>
+    <t>G04</t>
+  </si>
+  <si>
+    <t>imposta abilitazione programma 2</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>leggi frequenza programma 1</t>
+  </si>
+  <si>
+    <t>G03</t>
+  </si>
+  <si>
+    <t>imposta frequenza programma 1</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>leggi programma 1</t>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>imposta programma 1</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>leggi orologio</t>
+  </si>
+  <si>
+    <t>G01</t>
+  </si>
+  <si>
+    <t>imposta orologio</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>lunghezza fissa</t>
+  </si>
+  <si>
+    <t>formato</t>
+  </si>
+  <si>
+    <t>tipo valore</t>
+  </si>
+  <si>
+    <t>descrizione informazione</t>
+  </si>
+  <si>
+    <t>codice parametro</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>errore generico</t>
+  </si>
+  <si>
+    <t>esito richiesta/risposta eseguita</t>
+  </si>
+  <si>
+    <t>esecuzione ok</t>
+  </si>
+  <si>
+    <t>E00</t>
+  </si>
+  <si>
+    <t>errore non definito</t>
+  </si>
+  <si>
+    <t>valore minimo ammesso</t>
+  </si>
+  <si>
+    <t>valore massimo ammesso</t>
+  </si>
+  <si>
+    <t>numero di salti esecuzione</t>
+  </si>
+  <si>
+    <t>G08</t>
+  </si>
+  <si>
+    <t>0 off 1 on</t>
+  </si>
+  <si>
+    <t>leggi status irrigazione programma 1</t>
+  </si>
+  <si>
+    <t>G09</t>
+  </si>
+  <si>
+    <t>leggi status irrigazione programma 2</t>
+  </si>
+  <si>
+    <t>timestamp: esempio 24/07/2020 09:20 = 1595582400</t>
+  </si>
+  <si>
+    <t>struttura stringa</t>
+  </si>
+  <si>
+    <t>posizione iniziale</t>
+  </si>
+  <si>
+    <t>posizione finale</t>
+  </si>
+  <si>
+    <t>valore</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>esempio</t>
+  </si>
+  <si>
+    <t>codice tipo valore</t>
+  </si>
+  <si>
+    <t>lunghezza</t>
+  </si>
+  <si>
+    <t>da aggiungere: 0 no 1 si</t>
+  </si>
+  <si>
+    <t>se 1 ad esempio nel caso di stringhe si dovrà concatenare il successivo valore</t>
+  </si>
+  <si>
+    <t>posizione virgola x decimali</t>
+  </si>
+  <si>
+    <t>si usa in caso di valori decimali, la numerazione parte da 0</t>
+  </si>
+  <si>
+    <t>esempio di stringa per impostare orologio</t>
+  </si>
+  <si>
+    <t>S011159558240000</t>
+  </si>
+  <si>
+    <t>lunghezza totale caratteri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +327,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -146,9 +373,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8F8CA2-4480-48F8-AB36-7B1B9D3E9B8B}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -619,4 +862,692 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758455FE-FD8E-4BEF-BAF9-4D59972DAA34}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <f>A3+C3-1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f>B3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>A4+C4-1</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f>B4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f>A5+C5-1</f>
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>1595582400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f>B5+1</f>
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <f>A6+C6-1</f>
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f>B6+1</f>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <f>A7+C7-1</f>
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3">
+        <f>SUM(C3:C7)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>4294967295</v>
+      </c>
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>4294967295</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>4294967295</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>4294967295</v>
+      </c>
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>255</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>255</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>255</v>
+      </c>
+      <c r="J23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>255</v>
+      </c>
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>4294967295</v>
+      </c>
+      <c r="J25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>4294967295</v>
+      </c>
+      <c r="J26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>255</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>255</v>
+      </c>
+      <c r="J28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>255</v>
+      </c>
+      <c r="J29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>255</v>
+      </c>
+      <c r="J30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/transm/flusso_modifica_parametro.xlsx
+++ b/transm/flusso_modifica_parametro.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.solazzi\Documents\sviluppo\src\arduino\a01\transm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A6CC3E-2296-4E9A-B0BA-9F944927EED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF2B438-A42B-47CF-81C6-3465519F24E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{50B162F0-49E0-43FE-8DCC-E6BD8AF511FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{50B162F0-49E0-43FE-8DCC-E6BD8AF511FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="codifica_stringhe" sheetId="2" r:id="rId2"/>
+    <sheet name="flusso" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">codifica_stringhe!$A$14:$J$31</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="96">
   <si>
     <t>nexus 5</t>
   </si>
@@ -311,6 +312,18 @@
   </si>
   <si>
     <t>lunghezza totale caratteri</t>
+  </si>
+  <si>
+    <t>S070000000000300</t>
+  </si>
+  <si>
+    <t>stringa codificata x aggiornamento num skip, es imposta 3 skip = S070000000000300</t>
+  </si>
+  <si>
+    <t>ricordarsi di cambiare il nome delle variabili su arduino ev controller con il nome del parametro. Es numero skip S07 la corrispondente variabile è V07. Cambia solo la prima lettera che è sempre V</t>
+  </si>
+  <si>
+    <t>step</t>
   </si>
 </sst>
 </file>
@@ -373,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -382,9 +395,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -392,6 +402,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758455FE-FD8E-4BEF-BAF9-4D59972DAA34}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,14 +902,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1028,7 +1044,7 @@
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B10" s="2"/>
@@ -1037,41 +1053,44 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1550,4 +1569,176 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C80BEB-B1ED-43CF-8DDA-1DFBE9712527}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/transm/flusso_modifica_parametro.xlsx
+++ b/transm/flusso_modifica_parametro.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.solazzi\Documents\sviluppo\src\arduino\a01\transm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF2B438-A42B-47CF-81C6-3465519F24E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5360E521-9944-4AA0-9D66-2A6AE6412B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{50B162F0-49E0-43FE-8DCC-E6BD8AF511FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="codifica_stringhe" sheetId="2" r:id="rId2"/>
-    <sheet name="flusso" sheetId="3" r:id="rId3"/>
+    <sheet name="classe_msg" sheetId="4" r:id="rId3"/>
+    <sheet name="flusso" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">codifica_stringhe!$A$14:$J$31</definedName>
@@ -25,18 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="126">
   <si>
     <t>nexus 5</t>
   </si>
@@ -302,9 +297,6 @@
     <t>posizione virgola x decimali</t>
   </si>
   <si>
-    <t>si usa in caso di valori decimali, la numerazione parte da 0</t>
-  </si>
-  <si>
     <t>esempio di stringa per impostare orologio</t>
   </si>
   <si>
@@ -324,6 +316,99 @@
   </si>
   <si>
     <t>step</t>
+  </si>
+  <si>
+    <t>attributo</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>nome classe</t>
+  </si>
+  <si>
+    <t>proprietà</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>metodo</t>
+  </si>
+  <si>
+    <t>argomenti</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>tipo ritorno</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>getCodParam</t>
+  </si>
+  <si>
+    <t>getTipoVal</t>
+  </si>
+  <si>
+    <t>getValue</t>
+  </si>
+  <si>
+    <t>setCodParam</t>
+  </si>
+  <si>
+    <t>setTipoVal</t>
+  </si>
+  <si>
+    <t>setValue</t>
+  </si>
+  <si>
+    <t>si usa in caso di valori decimali, la numerazione parte da 0 da destra</t>
+  </si>
+  <si>
+    <t>getCommaIdx</t>
+  </si>
+  <si>
+    <t>indice della posizione della virgola da destra. Usato per i decimali</t>
+  </si>
+  <si>
+    <t>setCommaIdx</t>
+  </si>
+  <si>
+    <t>msgAppend</t>
+  </si>
+  <si>
+    <t>se bisogna aspettarsi un ulteriore messaggio da concatenare: 0 no, 1 si</t>
+  </si>
+  <si>
+    <t>setMsgAppend</t>
+  </si>
+  <si>
+    <t>AGPSMessage</t>
+  </si>
+  <si>
+    <t>Arduino General Purpose Serial Messaging</t>
+  </si>
+  <si>
+    <t>char[20]</t>
+  </si>
+  <si>
+    <t>char[3]</t>
+  </si>
+  <si>
+    <t>char[3] Param</t>
+  </si>
+  <si>
+    <t>char[10]</t>
+  </si>
+  <si>
+    <t>setCharMsg</t>
+  </si>
+  <si>
+    <t>byte index, char value</t>
   </si>
 </sst>
 </file>
@@ -402,11 +487,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,7 +970,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,14 +987,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1006,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1033,7 +1118,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="3">
         <f>SUM(C3:C7)</f>
@@ -1045,18 +1130,18 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1572,11 +1657,243 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B32292-C137-48F7-A624-DEF69A270AA5}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C80BEB-B1ED-43CF-8DDA-1DFBE9712527}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,8 +1911,8 @@
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>95</v>
+      <c r="C1" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -1637,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1734,7 +2051,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/transm/flusso_modifica_parametro.xlsx
+++ b/transm/flusso_modifica_parametro.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.solazzi\Documents\sviluppo\src\arduino\a01\transm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo\Documents\Sviluppo\Arduino\a01\transm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5360E521-9944-4AA0-9D66-2A6AE6412B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{50B162F0-49E0-43FE-8DCC-E6BD8AF511FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +18,9 @@
     <sheet name="flusso" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">codifica_stringhe!$A$14:$J$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">codifica_stringhe!$A$16:$J$33</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="132">
   <si>
     <t>nexus 5</t>
   </si>
@@ -409,12 +408,30 @@
   </si>
   <si>
     <t>byte index, char value</t>
+  </si>
+  <si>
+    <t>SOH</t>
+  </si>
+  <si>
+    <t>carattere ASCII 1</t>
+  </si>
+  <si>
+    <t>inizio messaggio</t>
+  </si>
+  <si>
+    <t>fine messaggio</t>
+  </si>
+  <si>
+    <t>EOT</t>
+  </si>
+  <si>
+    <t>carattere ASCII 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,7 +512,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -806,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8F8CA2-4480-48F8-AB36-7B1B9D3E9B8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -966,11 +983,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758455FE-FD8E-4BEF-BAF9-4D59972DAA34}">
-  <dimension ref="A1:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +996,7 @@
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -1022,35 +1039,38 @@
       </c>
       <c r="B3" s="2">
         <f>A3+C3-1</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>127</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>B3+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
         <f>A4+C4-1</f>
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1060,38 +1080,35 @@
       </c>
       <c r="B5" s="2">
         <f>A5+C5-1</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E5">
-        <v>1595582400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>B5+1</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>A6+C6-1</f>
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>111</v>
+        <v>1595582400</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1107,188 +1124,180 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f>B7+1</f>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <f>A8+C8-1</f>
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>85</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f>B8+1</f>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <f>A9+C9-1</f>
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="3">
-        <f>SUM(C3:C7)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C10" s="3">
+        <f>SUM(C3:C9)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-    </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>4294967295</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>4294967295</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1306,15 +1315,15 @@
         <v>4294967295</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1337,62 +1346,62 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>255</v>
+        <v>4294967295</v>
       </c>
       <c r="J21" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>255</v>
+        <v>4294967295</v>
       </c>
       <c r="J22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -1410,15 +1419,15 @@
         <v>255</v>
       </c>
       <c r="J23" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -1436,119 +1445,119 @@
         <v>255</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4294967295</v>
+        <v>255</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>4294967295</v>
+        <v>255</v>
       </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>255</v>
+        <v>4294967295</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>255</v>
+        <v>4294967295</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -1566,15 +1575,15 @@
         <v>255</v>
       </c>
       <c r="J29" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -1592,15 +1601,15 @@
         <v>255</v>
       </c>
       <c r="J30" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -1615,18 +1624,18 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -1641,9 +1650,61 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="J32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1657,10 +1718,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B32292-C137-48F7-A624-DEF69A270AA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1889,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C80BEB-B1ED-43CF-8DDA-1DFBE9712527}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/transm/flusso_modifica_parametro.xlsx
+++ b/transm/flusso_modifica_parametro.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo\Documents\Sviluppo\Arduino\a01\transm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.solazzi\Documents\sviluppo\src\arduino\a01\transm\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8378B56A-CDE8-4A06-B2EB-B7219F85EF6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="4440" yWindow="732" windowWidth="29280" windowHeight="15180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="codifica_stringhe" sheetId="2" r:id="rId2"/>
     <sheet name="classe_msg" sheetId="4" r:id="rId3"/>
     <sheet name="flusso" sheetId="3" r:id="rId4"/>
+    <sheet name="codifica_stringhe_bin" sheetId="5" r:id="rId5"/>
+    <sheet name="codice_parametro_decimale" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">codifica_stringhe!$A$16:$J$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">codice_parametro_decimale!$A$1:$C$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">codifica_stringhe!$A$17:$J$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">codifica_stringhe_bin!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="202">
   <si>
     <t>nexus 5</t>
   </si>
@@ -299,15 +304,9 @@
     <t>esempio di stringa per impostare orologio</t>
   </si>
   <si>
-    <t>S011159558240000</t>
-  </si>
-  <si>
     <t>lunghezza totale caratteri</t>
   </si>
   <si>
-    <t>S070000000000300</t>
-  </si>
-  <si>
     <t>stringa codificata x aggiornamento num skip, es imposta 3 skip = S070000000000300</t>
   </si>
   <si>
@@ -413,9 +412,6 @@
     <t>SOH</t>
   </si>
   <si>
-    <t>carattere ASCII 1</t>
-  </si>
-  <si>
     <t>inizio messaggio</t>
   </si>
   <si>
@@ -425,14 +421,233 @@
     <t>EOT</t>
   </si>
   <si>
-    <t>carattere ASCII 4</t>
+    <t>segno algebrico</t>
+  </si>
+  <si>
+    <t>se 0 è positivo se 1 è negativo</t>
+  </si>
+  <si>
+    <t>decimale</t>
+  </si>
+  <si>
+    <t>1 cifra</t>
+  </si>
+  <si>
+    <t>10 cifre</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>STX</t>
+  </si>
+  <si>
+    <t>ETX</t>
+  </si>
+  <si>
+    <t>carattere ASCII 2</t>
+  </si>
+  <si>
+    <t>carattere ASCII 3</t>
+  </si>
+  <si>
+    <t>STXS0111595582400000ETX</t>
+  </si>
+  <si>
+    <t>struttura stringa numerica</t>
+  </si>
+  <si>
+    <t>E99</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>E07</t>
+  </si>
+  <si>
+    <t>E08</t>
+  </si>
+  <si>
+    <t>E09</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>E39</t>
+  </si>
+  <si>
+    <t>E49</t>
+  </si>
+  <si>
+    <t>E59</t>
+  </si>
+  <si>
+    <t>E69</t>
+  </si>
+  <si>
+    <t>E79</t>
+  </si>
+  <si>
+    <t>E89</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>S39</t>
+  </si>
+  <si>
+    <t>S49</t>
+  </si>
+  <si>
+    <t>S59</t>
+  </si>
+  <si>
+    <t>S69</t>
+  </si>
+  <si>
+    <t>S79</t>
+  </si>
+  <si>
+    <t>S89</t>
+  </si>
+  <si>
+    <t>S99</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>intersezioni</t>
+  </si>
+  <si>
+    <t>lettera codice parametro</t>
+  </si>
+  <si>
+    <t>progressivo codice parametro</t>
+  </si>
+  <si>
+    <t>2 cifre</t>
+  </si>
+  <si>
+    <t>lunghezza valore</t>
+  </si>
+  <si>
+    <t>4 bit x cifra</t>
+  </si>
+  <si>
+    <t>obbligatorio</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>no se lunghezza valore è 0, altrimenti si</t>
+  </si>
+  <si>
+    <t>2 cifra</t>
+  </si>
+  <si>
+    <t>SOH carattere ascii 1</t>
+  </si>
+  <si>
+    <t>max 10</t>
+  </si>
+  <si>
+    <t>max bit</t>
+  </si>
+  <si>
+    <t>min bit</t>
+  </si>
+  <si>
+    <t>EOT carattere ASCII 4</t>
+  </si>
+  <si>
+    <t>numero bit</t>
+  </si>
+  <si>
+    <t>posizione iniziale a sx</t>
+  </si>
+  <si>
+    <t>posizione finale a dx</t>
+  </si>
+  <si>
+    <t>numero byte</t>
+  </si>
+  <si>
+    <t>SOHS011101595582400000EOT</t>
+  </si>
+  <si>
+    <t>esempio stringa</t>
+  </si>
+  <si>
+    <t>elemento</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>01010011</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>0001|0101|1001|0101|0101|1000|0010|0100|0000|0000</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0000|0001</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>messaggio convertito</t>
+  </si>
+  <si>
+    <t>accodare I bit sopra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +682,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -488,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -507,12 +728,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -823,21 +1057,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="101.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -851,7 +1085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -865,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -876,7 +1110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -890,7 +1124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -901,7 +1135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -915,7 +1149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -926,7 +1160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -940,7 +1174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -951,7 +1185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -965,7 +1199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -983,37 +1217,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>78</v>
       </c>
@@ -1033,34 +1267,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <f>A3+C3-1</f>
+        <f t="shared" ref="B3:B10" si="0">A3+C3-1</f>
         <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <f>B3+1</f>
+        <f t="shared" ref="A4:A10" si="1">B3+1</f>
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <f>A4+C4-1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C4" s="2">
@@ -1073,13 +1307,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f>B4+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f>A5+C5-1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C5" s="2">
@@ -1092,13 +1326,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <f>B5+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f>A6+C6-1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C6" s="2">
@@ -1111,13 +1345,13 @@
         <v>1595582400</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f>B6+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B7" s="2">
-        <f>A7+C7-1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C7" s="2">
@@ -1130,148 +1364,141 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <f>B7+1</f>
         <v>16</v>
       </c>
-      <c r="B8" s="2">
-        <f>A8+C8-1</f>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>85</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <f>B8+1</f>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B9" s="2">
-        <f>A9+C9-1</f>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="3">
-        <f>SUM(C3:C9)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="3">
+        <f>SUM(C3:C10)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
       <c r="B13" s="2"/>
       <c r="C13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>64</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -1289,41 +1516,41 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>4294967295</v>
-      </c>
-      <c r="J19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1341,15 +1568,15 @@
         <v>4294967295</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1370,12 +1597,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1396,38 +1623,38 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>4294967295</v>
+      </c>
+      <c r="J23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>255</v>
-      </c>
-      <c r="J23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -1448,12 +1675,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -1471,15 +1698,15 @@
         <v>255</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -1500,38 +1727,38 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>255</v>
+      </c>
+      <c r="J27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>37</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>4294967295</v>
-      </c>
-      <c r="J27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -1552,38 +1779,38 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>4294967295</v>
+      </c>
+      <c r="J29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>31</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>255</v>
-      </c>
-      <c r="J29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -1604,12 +1831,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -1627,15 +1854,15 @@
         <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -1656,12 +1883,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -1676,18 +1903,18 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="J33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -1705,6 +1932,32 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1718,226 +1971,226 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
         <v>118</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
         <v>120</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" t="s">
-        <v>106</v>
       </c>
       <c r="F7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
         <v>110</v>
-      </c>
-      <c r="E10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>112</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -1950,22 +2203,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1973,7 +2226,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -1982,7 +2235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1996,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2007,7 +2260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2015,13 +2268,13 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2035,7 +2288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2049,7 +2302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2060,7 +2313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2074,7 +2327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2085,7 +2338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2099,7 +2352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2110,13 +2363,978 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7F9788-365D-4B0D-BA3D-C473E963F250}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10">
+        <f t="shared" ref="B3:B12" si="0">A3+C3-1</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <f t="shared" ref="A4:A12" si="1">B3+1</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C4" s="10">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <f>B4+1</f>
+        <v>12</v>
+      </c>
+      <c r="B5" s="10">
+        <f t="shared" ref="B5" si="2">A5+C5-1</f>
+        <v>19</v>
+      </c>
+      <c r="C5" s="10">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <f>B5+1</f>
+        <v>20</v>
+      </c>
+      <c r="B6" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <f>B6+1</f>
+        <v>24</v>
+      </c>
+      <c r="B7" s="10">
+        <f t="shared" ref="B7" si="3">A7+C7-1</f>
+        <v>27</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <f>B7+1</f>
+        <v>28</v>
+      </c>
+      <c r="B8" s="10">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="10">
+        <v>40</v>
+      </c>
+      <c r="D8" s="12">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1595582400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B9" s="10">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C9" s="10">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B10" s="10">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="C12" s="10">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10">
+        <f>C12/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="3">
+        <f>SUM(C3:C12)</f>
+        <v>80</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19">
+        <f>CODE(C19)</f>
+        <v>83</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1595582400</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D4:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D46EE3D-128C-4E3A-9450-EFC7B0CEDA70}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7">
+        <v>170</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8">
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11">
+        <v>174</v>
+      </c>
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12">
+        <v>175</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13">
+        <v>176</v>
+      </c>
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14">
+        <v>177</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16">
+        <v>179</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19">
+        <v>182</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>184</v>
+      </c>
+      <c r="C21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>185</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>186</v>
+      </c>
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24">
+        <v>187</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25">
+        <v>188</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26">
+        <v>189</v>
+      </c>
+      <c r="C26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28">
+        <v>191</v>
+      </c>
+      <c r="C28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29">
+        <v>192</v>
+      </c>
+      <c r="C29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30">
+        <v>193</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31">
+        <v>194</v>
+      </c>
+      <c r="C31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32">
+        <v>195</v>
+      </c>
+      <c r="C32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33">
+        <v>196</v>
+      </c>
+      <c r="C33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34">
+        <v>197</v>
+      </c>
+      <c r="C34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C34" xr:uid="{76FF622C-9145-432F-BB10-411D588F86B7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C34">
+      <sortCondition ref="A1:A34"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
+    <sortCondition ref="B3"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/transm/flusso_modifica_parametro.xlsx
+++ b/transm/flusso_modifica_parametro.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.solazzi\Documents\sviluppo\src\arduino\a01\transm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo\Documents\Sviluppo\Arduino\a01\transm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8378B56A-CDE8-4A06-B2EB-B7219F85EF6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="732" windowWidth="29280" windowHeight="15180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="735" windowWidth="29280" windowHeight="15180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">codifica_stringhe!$A$17:$J$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">codifica_stringhe_bin!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -646,8 +645,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,6 +687,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -709,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -731,9 +738,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -744,9 +748,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1057,21 +1070,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="101.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1099,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1124,7 +1137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1135,7 +1148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1149,7 +1162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1160,7 +1173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1174,7 +1187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1185,7 +1198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1199,7 +1212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1217,37 +1230,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>78</v>
       </c>
@@ -1267,7 +1280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1288,7 +1301,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A10" si="1">B3+1</f>
         <v>1</v>
@@ -1307,7 +1320,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1326,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1345,7 +1358,7 @@
         <v>1595582400</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1367,7 +1380,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1389,7 +1402,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>B7+1</f>
         <v>16</v>
@@ -1411,7 +1424,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1433,7 +1446,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
@@ -1442,10 +1455,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
@@ -1454,14 +1467,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
@@ -1493,7 +1506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1519,7 +1532,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -1545,7 +1558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -1571,7 +1584,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -1597,7 +1610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -1623,7 +1636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -1649,7 +1662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1675,7 +1688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1701,7 +1714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -1727,7 +1740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -1753,7 +1766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1779,7 +1792,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1805,7 +1818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -1831,7 +1844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1857,7 +1870,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -1883,7 +1896,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -1909,7 +1922,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>71</v>
       </c>
@@ -1935,7 +1948,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -1971,24 +1984,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -2011,7 +2024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -2022,7 +2035,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2036,7 +2049,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -2050,7 +2063,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -2064,7 +2077,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -2078,7 +2091,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -2092,7 +2105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -2106,7 +2119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -2120,7 +2133,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -2134,7 +2147,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -2151,7 +2164,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -2165,7 +2178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2182,7 +2195,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -2203,22 +2216,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2235,7 +2248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2249,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2260,7 +2273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2274,7 +2287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2288,7 +2301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2302,7 +2315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2313,7 +2326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2327,7 +2340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2338,7 +2351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2352,7 +2365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2363,7 +2376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -2375,40 +2388,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7F9788-365D-4B0D-BA3D-C473E963F250}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -2437,296 +2450,297 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
         <f t="shared" ref="B3:B12" si="0">A3+C3-1</f>
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11">
+        <f>C3/8</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <f t="shared" ref="A4:A12" si="1">B3+1</f>
+        <v>8</v>
+      </c>
+      <c r="B4" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C4" s="9">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14">
         <v>3</v>
       </c>
-      <c r="C3" s="10">
+      <c r="E4" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <f>B4+1</f>
+        <v>16</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" ref="B5" si="2">A5+C5-1</f>
+        <v>23</v>
+      </c>
+      <c r="C5" s="9">
+        <v>8</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <f>B5+1</f>
+        <v>24</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <f t="shared" ref="A4:A12" si="1">B3+1</f>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f>B6+1</f>
+        <v>28</v>
+      </c>
+      <c r="B7" s="9">
+        <f t="shared" ref="B7" si="3">A7+C7-1</f>
+        <v>31</v>
+      </c>
+      <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="B4" s="10">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C4" s="10">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12">
-        <v>3</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <f>B4+1</f>
-        <v>12</v>
-      </c>
-      <c r="B5" s="10">
-        <f t="shared" ref="B5" si="2">A5+C5-1</f>
-        <v>19</v>
-      </c>
-      <c r="C5" s="10">
-        <v>8</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <f>B5+1</f>
-        <v>20</v>
-      </c>
-      <c r="B6" s="10">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C6" s="10">
-        <v>4</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <f>B6+1</f>
-        <v>24</v>
-      </c>
-      <c r="B7" s="10">
-        <f t="shared" ref="B7" si="3">A7+C7-1</f>
-        <v>27</v>
-      </c>
-      <c r="C7" s="10">
-        <v>4</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <f>B7+1</f>
-        <v>28</v>
-      </c>
-      <c r="B8" s="10">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="C8" s="10">
-        <v>40</v>
-      </c>
-      <c r="D8" s="12">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="I8" s="11">
-        <v>1595582400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B9" s="10">
+        <v>32</v>
+      </c>
+      <c r="B8" s="9">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="C9" s="10">
-        <v>4</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="C8" s="9">
+        <v>40</v>
+      </c>
+      <c r="D8" s="14">
+        <v>6</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="H8" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1595582400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B10" s="10">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B11" s="10">
+      <c r="B9" s="9">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C9" s="9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="10">
         <v>2</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B10" s="9">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B11" s="9">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="C12" s="10">
-        <v>4</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B12" s="9">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="C12" s="9">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9">
         <f>C12/8</f>
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C13" s="3">
         <f>SUM(C3:C12)</f>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>182</v>
       </c>
@@ -2734,14 +2748,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>189</v>
       </c>
@@ -2758,7 +2772,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -2771,15 +2785,15 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C19" t="s">
@@ -2789,29 +2803,29 @@
         <f>CODE(C19)</f>
         <v>83</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>188</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>188</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C21">
@@ -2820,15 +2834,15 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>188</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C22">
@@ -2841,25 +2855,25 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>1595582400</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C24">
@@ -2868,43 +2882,43 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>188</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C27" t="s">
@@ -2913,18 +2927,18 @@
       <c r="D27">
         <v>4</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>188</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2940,20 +2954,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D46EE3D-128C-4E3A-9450-EFC7B0CEDA70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
@@ -2964,7 +2978,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -2972,7 +2986,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
@@ -2983,7 +2997,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>141</v>
       </c>
@@ -2994,7 +3008,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>142</v>
       </c>
@@ -3005,7 +3019,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>143</v>
       </c>
@@ -3016,7 +3030,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>144</v>
       </c>
@@ -3027,7 +3041,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>145</v>
       </c>
@@ -3038,7 +3052,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>146</v>
       </c>
@@ -3049,7 +3063,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>147</v>
       </c>
@@ -3060,7 +3074,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>148</v>
       </c>
@@ -3071,7 +3085,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>149</v>
       </c>
@@ -3082,7 +3096,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>150</v>
       </c>
@@ -3093,7 +3107,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>151</v>
       </c>
@@ -3104,7 +3118,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>152</v>
       </c>
@@ -3115,7 +3129,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>153</v>
       </c>
@@ -3126,7 +3140,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>154</v>
       </c>
@@ -3137,7 +3151,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>155</v>
       </c>
@@ -3148,7 +3162,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>156</v>
       </c>
@@ -3159,7 +3173,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>140</v>
       </c>
@@ -3170,7 +3184,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -3181,7 +3195,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -3192,7 +3206,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -3203,7 +3217,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>157</v>
       </c>
@@ -3214,7 +3228,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>158</v>
       </c>
@@ -3225,7 +3239,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>159</v>
       </c>
@@ -3236,7 +3250,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>160</v>
       </c>
@@ -3247,7 +3261,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>161</v>
       </c>
@@ -3258,7 +3272,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>162</v>
       </c>
@@ -3269,7 +3283,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>163</v>
       </c>
@@ -3280,7 +3294,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>164</v>
       </c>
@@ -3291,7 +3305,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>165</v>
       </c>
@@ -3302,7 +3316,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>166</v>
       </c>
@@ -3313,7 +3327,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>167</v>
       </c>
@@ -3325,12 +3339,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C34" xr:uid="{76FF622C-9145-432F-BB10-411D588F86B7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C34">
+  <autoFilter ref="A1:C34">
+    <sortState ref="A2:C34">
       <sortCondition ref="A1:A34"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
+  <sortState ref="A2:B34">
     <sortCondition ref="B3"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/transm/flusso_modifica_parametro.xlsx
+++ b/transm/flusso_modifica_parametro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="735" windowWidth="29280" windowHeight="15180" activeTab="4"/>
+    <workbookView xWindow="4440" yWindow="735" windowWidth="29280" windowHeight="15180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,9 @@
     <sheet name="classe_msg" sheetId="4" r:id="rId3"/>
     <sheet name="flusso" sheetId="3" r:id="rId4"/>
     <sheet name="codifica_stringhe_bin" sheetId="5" r:id="rId5"/>
-    <sheet name="codice_parametro_decimale" sheetId="6" r:id="rId6"/>
+    <sheet name="struttura in bit e byte" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">codice_parametro_decimale!$A$1:$C$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">codifica_stringhe!$A$17:$J$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">codifica_stringhe_bin!#REF!</definedName>
   </definedNames>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="181">
   <si>
     <t>nexus 5</t>
   </si>
@@ -456,96 +455,6 @@
     <t>struttura stringa numerica</t>
   </si>
   <si>
-    <t>E99</t>
-  </si>
-  <si>
-    <t>E02</t>
-  </si>
-  <si>
-    <t>E03</t>
-  </si>
-  <si>
-    <t>E04</t>
-  </si>
-  <si>
-    <t>E05</t>
-  </si>
-  <si>
-    <t>E06</t>
-  </si>
-  <si>
-    <t>E07</t>
-  </si>
-  <si>
-    <t>E08</t>
-  </si>
-  <si>
-    <t>E09</t>
-  </si>
-  <si>
-    <t>E19</t>
-  </si>
-  <si>
-    <t>E29</t>
-  </si>
-  <si>
-    <t>E39</t>
-  </si>
-  <si>
-    <t>E49</t>
-  </si>
-  <si>
-    <t>E59</t>
-  </si>
-  <si>
-    <t>E69</t>
-  </si>
-  <si>
-    <t>E79</t>
-  </si>
-  <si>
-    <t>E89</t>
-  </si>
-  <si>
-    <t>S08</t>
-  </si>
-  <si>
-    <t>S09</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>S29</t>
-  </si>
-  <si>
-    <t>S39</t>
-  </si>
-  <si>
-    <t>S49</t>
-  </si>
-  <si>
-    <t>S59</t>
-  </si>
-  <si>
-    <t>S69</t>
-  </si>
-  <si>
-    <t>S79</t>
-  </si>
-  <si>
-    <t>S89</t>
-  </si>
-  <si>
-    <t>S99</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>intersezioni</t>
-  </si>
-  <si>
     <t>lettera codice parametro</t>
   </si>
   <si>
@@ -640,6 +549,33 @@
   </si>
   <si>
     <t>accodare I bit sopra</t>
+  </si>
+  <si>
+    <t>codice parametro: 0 G (get), 1 S (set), 3 E (error), 4 W (warning), 5 M (message)</t>
+  </si>
+  <si>
+    <t>lunghezza valore: 0 min 9 max</t>
+  </si>
+  <si>
+    <t>da aggiungere ad altro messaggio: 0 no 1 si</t>
+  </si>
+  <si>
+    <t>numerico 0 alfanumerico 1</t>
+  </si>
+  <si>
+    <t>codice tipo valore: 0 bit, 1 Byte, 2 int, 3 float</t>
+  </si>
+  <si>
+    <t>valore: 4bit x lunghezza valore se numerico, 8bit x lunghezza valore se alfanumerico. Min 4 ( 0 vale 4 bit) max 72 bit</t>
+  </si>
+  <si>
+    <t>fine messaggio: 4 bit se I bit di valore / 8 hanno resto, 8 se non hanno resto</t>
+  </si>
+  <si>
+    <t>num bit min</t>
+  </si>
+  <si>
+    <t>num bit max</t>
   </si>
 </sst>
 </file>
@@ -716,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -748,14 +684,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1251,14 +1190,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2391,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,30 +2348,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>81</v>
@@ -2441,7 +2380,7 @@
         <v>130</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
@@ -2456,50 +2395,50 @@
       </c>
       <c r="B3" s="9">
         <f t="shared" ref="B3:B12" si="0">A3+C3-1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="11">
         <f>C3/8</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="15" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>125</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f t="shared" ref="A4:A12" si="1">B3+1</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="9">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="9">
         <v>8</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="16">
         <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
@@ -2509,24 +2448,24 @@
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f>B4+1</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9">
         <f t="shared" ref="B5" si="2">A5+C5-1</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="9">
         <v>8</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="10" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -2534,16 +2473,16 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f>B5+1</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="9">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="10" t="s">
         <v>83</v>
       </c>
@@ -2551,7 +2490,7 @@
         <v>131</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10">
@@ -2561,43 +2500,43 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>B6+1</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" s="9">
         <f t="shared" ref="B7" si="3">A7+C7-1</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="10" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f>B7+1</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" s="9">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8" s="9">
         <v>40</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="16">
         <v>6</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -2607,10 +2546,10 @@
         <v>132</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="I8" s="10">
         <v>1595582400</v>
@@ -2619,16 +2558,16 @@
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B9" s="9">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" s="9">
         <v>4</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="10" t="s">
         <v>87</v>
       </c>
@@ -2636,7 +2575,7 @@
         <v>131</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>109</v>
@@ -2648,22 +2587,22 @@
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B10" s="9">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C10" s="9">
-        <v>2</v>
-      </c>
-      <c r="D10" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="16"/>
       <c r="E10" s="10" t="s">
         <v>128</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>129</v>
@@ -2675,22 +2614,22 @@
     <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B11" s="9">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C11" s="9">
-        <v>2</v>
-      </c>
-      <c r="D11" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="16"/>
       <c r="E11" s="10" t="s">
         <v>85</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>86</v>
@@ -2702,18 +2641,18 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B12" s="9">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C12" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D12" s="9">
         <f>C12/8</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>126</v>
@@ -2722,27 +2661,27 @@
         <v>131</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C13" s="3">
         <f>SUM(C3:C12)</f>
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3"/>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C14" s="3">
         <v>32</v>
@@ -2757,10 +2696,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
         <v>80</v>
@@ -2774,7 +2713,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>125</v>
@@ -2786,44 +2725,44 @@
         <v>1</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D19">
         <f>CODE(C19)</f>
         <v>83</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>83</v>
@@ -2835,15 +2774,15 @@
         <v>1</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -2857,7 +2796,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>80</v>
@@ -2866,12 +2805,12 @@
         <v>1595582400</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>87</v>
@@ -2883,12 +2822,12 @@
         <v>0</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>128</v>
@@ -2897,12 +2836,12 @@
         <v>0</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>85</v>
@@ -2911,12 +2850,12 @@
         <v>0</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>126</v>
@@ -2928,18 +2867,18 @@
         <v>4</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2955,398 +2894,229 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3">
-        <v>166</v>
-      </c>
-      <c r="C3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <f>A2/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
+        <f>A3/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <f>A4/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
+        <f>A5/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13">
+        <f>A6/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13">
+        <f>A7/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13">
+        <f>A8/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13">
+        <f t="shared" ref="B9:B12" si="0">A9/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>12</v>
+      </c>
+      <c r="B10" s="13">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B4">
-        <v>167</v>
-      </c>
-      <c r="C4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5">
-        <v>168</v>
-      </c>
-      <c r="C5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6">
-        <v>169</v>
-      </c>
-      <c r="C6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7">
-        <v>170</v>
-      </c>
-      <c r="C7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8">
-        <v>171</v>
-      </c>
-      <c r="C8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9">
-        <v>172</v>
-      </c>
-      <c r="C9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10">
-        <v>173</v>
-      </c>
-      <c r="C10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11">
-        <v>174</v>
-      </c>
-      <c r="C11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12">
-        <v>175</v>
-      </c>
-      <c r="C12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13">
-        <v>176</v>
-      </c>
-      <c r="C13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14">
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>12</v>
+      </c>
+      <c r="B11" s="13">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15">
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>153</v>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <f>SUBTOTAL(9,A2:A12)</f>
+        <v>48</v>
+      </c>
+      <c r="B14" s="13">
+        <f>SUBTOTAL(9,B2:B12)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>179</v>
       </c>
       <c r="B16">
-        <v>179</v>
-      </c>
-      <c r="C16" t="s">
-        <v>168</v>
+        <f>16+4+4</f>
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <f>B16/8</f>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>154</v>
+      <c r="A17" t="s">
+        <v>180</v>
       </c>
       <c r="B17">
-        <v>180</v>
-      </c>
-      <c r="C17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18">
-        <v>181</v>
-      </c>
-      <c r="C18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19">
-        <v>182</v>
-      </c>
-      <c r="C19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20">
-        <v>183</v>
-      </c>
-      <c r="C20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21">
-        <v>184</v>
-      </c>
-      <c r="C21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22">
-        <v>185</v>
-      </c>
-      <c r="C22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>186</v>
-      </c>
-      <c r="C23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24">
-        <v>187</v>
-      </c>
-      <c r="C24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25">
-        <v>188</v>
-      </c>
-      <c r="C25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26">
-        <v>189</v>
-      </c>
-      <c r="C26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27">
-        <v>190</v>
-      </c>
-      <c r="C27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28">
-        <v>191</v>
-      </c>
-      <c r="C28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29">
-        <v>192</v>
-      </c>
-      <c r="C29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B30">
-        <v>193</v>
-      </c>
-      <c r="C30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31">
-        <v>194</v>
-      </c>
-      <c r="C31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32">
-        <v>195</v>
-      </c>
-      <c r="C32" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B33">
-        <v>196</v>
-      </c>
-      <c r="C33" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34">
-        <v>197</v>
-      </c>
-      <c r="C34" t="s">
-        <v>168</v>
+        <f>16+72+8</f>
+        <v>96</v>
+      </c>
+      <c r="C17">
+        <f>B17/8</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C34">
-    <sortState ref="A2:C34">
-      <sortCondition ref="A1:A34"/>
-    </sortState>
-  </autoFilter>
   <sortState ref="A2:B34">
     <sortCondition ref="B3"/>
   </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/transm/flusso_modifica_parametro.xlsx
+++ b/transm/flusso_modifica_parametro.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo\Documents\Sviluppo\Arduino\a01\transm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.solazzi\Documents\sviluppo\src\arduino\a01\transm\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F4722E-A795-4BD6-A878-8FFF311476EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="735" windowWidth="29280" windowHeight="15180" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">codifica_stringhe!$A$17:$J$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">codifica_stringhe_bin!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -581,7 +582,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -698,7 +699,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1009,21 +1010,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="101.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1151,7 +1152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1169,27 +1170,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>77</v>
       </c>
@@ -1199,7 +1200,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>78</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A10" si="1">B3+1</f>
         <v>1</v>
@@ -1259,7 +1260,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1278,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1297,7 +1298,7 @@
         <v>1595582400</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1319,7 +1320,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1341,7 +1342,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f>B7+1</f>
         <v>16</v>
@@ -1363,7 +1364,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1385,7 +1386,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
@@ -1394,10 +1395,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
@@ -1406,14 +1407,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
@@ -1445,7 +1446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -1575,7 +1576,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -1679,7 +1680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -1705,7 +1706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -1835,7 +1836,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -1861,7 +1862,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>71</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -1923,24 +1924,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -2155,22 +2156,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -2327,27 +2328,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>139</v>
       </c>
@@ -2360,7 +2361,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>155</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -2416,7 +2417,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f t="shared" ref="A4:A12" si="1">B3+1</f>
         <v>4</v>
@@ -2445,7 +2446,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f>B4+1</f>
         <v>12</v>
@@ -2470,7 +2471,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f>B5+1</f>
         <v>20</v>
@@ -2497,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>B6+1</f>
         <v>24</v>
@@ -2524,7 +2525,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f>B7+1</f>
         <v>28</v>
@@ -2555,7 +2556,7 @@
         <v>1595582400</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2584,7 +2585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2611,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2638,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2668,7 +2669,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>151</v>
       </c>
@@ -2679,7 +2680,7 @@
       <c r="D13" s="3"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>152</v>
       </c>
@@ -2687,14 +2688,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>158</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -2777,7 +2778,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -2808,7 +2809,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>158</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -2853,7 +2854,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>158</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -2893,22 +2894,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>154</v>
       </c>
@@ -2922,12 +2923,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="13">
-        <f>A2/8</f>
+        <f t="shared" ref="B2:B8" si="0">A2/8</f>
         <v>0.125</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -2936,39 +2937,48 @@
       <c r="D2" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <f>A3/8</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>174</v>
       </c>
       <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="13">
-        <f>A4/8</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>175</v>
       </c>
       <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="13">
-        <f>A5/8</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -2976,12 +2986,12 @@
       </c>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>1</v>
       </c>
       <c r="B6" s="13">
-        <f>A6/8</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -2989,12 +2999,12 @@
       </c>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" s="13">
-        <f>A7/8</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -3004,12 +3014,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>4</v>
       </c>
       <c r="B8" s="13">
-        <f>A8/8</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -3017,12 +3027,12 @@
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>4</v>
       </c>
       <c r="B9" s="13">
-        <f t="shared" ref="B9:B12" si="0">A9/8</f>
+        <f t="shared" ref="B9:B12" si="1">A9/8</f>
         <v>0.5</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -3032,12 +3042,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>12</v>
       </c>
       <c r="B10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -3045,12 +3055,12 @@
       </c>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>12</v>
       </c>
       <c r="B11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -3058,12 +3068,12 @@
       </c>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>4</v>
       </c>
       <c r="B12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -3071,7 +3081,7 @@
       </c>
       <c r="D12" s="16"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>SUBTOTAL(9,A2:A12)</f>
         <v>48</v>
@@ -3081,7 +3091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>179</v>
       </c>
@@ -3094,7 +3104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>180</v>
       </c>
@@ -3108,7 +3118,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="4">

--- a/transm/flusso_modifica_parametro.xlsx
+++ b/transm/flusso_modifica_parametro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.solazzi\Documents\sviluppo\src\arduino\a01\transm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F4722E-A795-4BD6-A878-8FFF311476EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BBCD6C-DA15-429C-A066-7862AE06C018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="1704" windowWidth="23040" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="classe_msg" sheetId="4" r:id="rId3"/>
     <sheet name="flusso" sheetId="3" r:id="rId4"/>
     <sheet name="codifica_stringhe_bin" sheetId="5" r:id="rId5"/>
-    <sheet name="struttura in bit e byte" sheetId="6" r:id="rId6"/>
+    <sheet name="struttura bit" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">codifica_stringhe!$A$17:$J$34</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="185">
   <si>
     <t>nexus 5</t>
   </si>
@@ -577,13 +577,25 @@
   </si>
   <si>
     <t>num bit max</t>
+  </si>
+  <si>
+    <t>Bit Da ( 0 = MSB )</t>
+  </si>
+  <si>
+    <t>Bit A</t>
+  </si>
+  <si>
+    <t>dimensione fissa</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,12 +631,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,12 +639,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -653,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -685,16 +709,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2332,7 +2371,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2405,7 +2444,7 @@
         <f>C3/8</f>
         <v>0.5</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>125</v>
       </c>
       <c r="F3" s="10"/>
@@ -2894,241 +2933,310 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891FBF59-F0FC-444E-A88D-2DA82726946C}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" customWidth="1"/>
-    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="64.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13">
-        <f t="shared" ref="B2:B8" si="0">A2/8</f>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <f>B2-A2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="19">
+        <f>C2/8</f>
         <v>0.125</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="16">
-        <v>1</v>
-      </c>
-      <c r="E2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14">
+        <f>B3-A3</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="19">
+        <f>C3/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14">
+        <f t="shared" ref="C4:C12" si="0">B4-A4</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
+        <f t="shared" ref="D4:D12" si="1">C4/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13">
+      <c r="C5" s="14">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="19">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>7</v>
+      </c>
+      <c r="B6" s="14">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="E6" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>8</v>
+      </c>
+      <c r="B7" s="14">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="D7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14">
+        <v>16</v>
+      </c>
+      <c r="C8" s="14">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="20">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>1</v>
-      </c>
-      <c r="B6" s="13">
+      <c r="E8" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>16</v>
+      </c>
+      <c r="B9" s="14">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="13">
+      <c r="D9" s="21">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>20</v>
+      </c>
+      <c r="B10" s="14">
+        <v>32</v>
+      </c>
+      <c r="C10" s="14">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>4</v>
-      </c>
-      <c r="B8" s="13">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>4</v>
-      </c>
-      <c r="B9" s="13">
-        <f t="shared" ref="B9:B12" si="1">A9/8</f>
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
         <v>12</v>
       </c>
-      <c r="B10" s="13">
+      <c r="D10" s="21">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="E10" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
-        <v>12</v>
-      </c>
-      <c r="B11" s="13">
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>32</v>
+      </c>
+      <c r="B11" s="14">
+        <v>104</v>
+      </c>
+      <c r="C11" s="14">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D11" s="20">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="C11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <v>4</v>
-      </c>
-      <c r="B12" s="13">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>104</v>
+      </c>
+      <c r="B12" s="14">
+        <v>112</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12" s="20">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <f>SUBTOTAL(9,A2:A12)</f>
-        <v>48</v>
-      </c>
-      <c r="B14" s="13">
-        <f>SUBTOTAL(9,B2:B12)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <f>C15/8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B16">
-        <f>16+4+4</f>
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="C16">
-        <f>B16/8</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17">
-        <f>16+72+8</f>
-        <v>96</v>
-      </c>
-      <c r="C17">
-        <f>B17/8</f>
-        <v>12</v>
+        <v>112</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
-    <sortCondition ref="B3"/>
-  </sortState>
-  <mergeCells count="4">
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/transm/flusso_modifica_parametro.xlsx
+++ b/transm/flusso_modifica_parametro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.solazzi\Documents\sviluppo\src\arduino\a01\transm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BBCD6C-DA15-429C-A066-7862AE06C018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B25B55-6CF7-4DFB-8106-18947DC53B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1704" windowWidth="23040" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3276" yWindow="1524" windowWidth="23040" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="188">
   <si>
     <t>nexus 5</t>
   </si>
@@ -567,12 +567,6 @@
     <t>codice tipo valore: 0 bit, 1 Byte, 2 int, 3 float</t>
   </si>
   <si>
-    <t>valore: 4bit x lunghezza valore se numerico, 8bit x lunghezza valore se alfanumerico. Min 4 ( 0 vale 4 bit) max 72 bit</t>
-  </si>
-  <si>
-    <t>fine messaggio: 4 bit se I bit di valore / 8 hanno resto, 8 se non hanno resto</t>
-  </si>
-  <si>
     <t>num bit min</t>
   </si>
   <si>
@@ -589,6 +583,21 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>contiene valore: se oltre al codice parametro c'è un valore</t>
+  </si>
+  <si>
+    <t>vuoto: sempre zero</t>
+  </si>
+  <si>
+    <t>presente se il bit 7 = 1</t>
+  </si>
+  <si>
+    <t>valore: 4bit x lunghezza valore se numerico, 8bit x lunghezza valore se alfanumerico. Min 0 max 72 bit</t>
+  </si>
+  <si>
+    <t>fine messaggio: 4 bit se I bit di valore / 8 hanno resto, 8 se non hanno resto o se il bit 7 = 0</t>
   </si>
 </sst>
 </file>
@@ -677,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -715,9 +724,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -734,6 +740,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1230,14 +1245,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -2388,17 +2403,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -2468,7 +2483,7 @@
       <c r="C4" s="9">
         <v>8</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="23">
         <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -2497,7 +2512,7 @@
       <c r="C5" s="9">
         <v>8</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="10" t="s">
         <v>141</v>
       </c>
@@ -2522,7 +2537,7 @@
       <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="10" t="s">
         <v>83</v>
       </c>
@@ -2549,7 +2564,7 @@
       <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="10" t="s">
         <v>143</v>
       </c>
@@ -2576,7 +2591,7 @@
       <c r="C8" s="9">
         <v>40</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="23">
         <v>6</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -2607,7 +2622,7 @@
       <c r="C9" s="9">
         <v>4</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="10" t="s">
         <v>87</v>
       </c>
@@ -2636,7 +2651,7 @@
       <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="10" t="s">
         <v>128</v>
       </c>
@@ -2663,7 +2678,7 @@
       <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="10" t="s">
         <v>85</v>
       </c>
@@ -2934,10 +2949,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891FBF59-F0FC-444E-A88D-2DA82726946C}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2950,27 +2965,27 @@
     <col min="6" max="6" width="64.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>0</v>
       </c>
@@ -2981,7 +2996,7 @@
         <f>B2-A2</f>
         <v>1</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <f>C2/8</f>
         <v>0.125</v>
       </c>
@@ -2992,7 +3007,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -3003,7 +3018,7 @@
         <f>B3-A3</f>
         <v>1</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <f>C3/8</f>
         <v>0.125</v>
       </c>
@@ -3014,7 +3029,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -3022,11 +3037,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="14">
-        <f t="shared" ref="C4:C12" si="0">B4-A4</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="19">
-        <f t="shared" ref="D4:D12" si="1">C4/8</f>
+        <f t="shared" ref="C4:C17" si="0">B4-A4</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="shared" ref="D4:D17" si="1">C4/8</f>
         <v>0.125</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -3036,202 +3051,280 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="14">
+        <v>5</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
         <v>7</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C7" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>8</v>
+      </c>
+      <c r="C8" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D10" s="19">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>7</v>
-      </c>
-      <c r="B6" s="14">
-        <v>8</v>
-      </c>
-      <c r="C6" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D6" s="19">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>8</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="F10" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
         <v>12</v>
       </c>
-      <c r="C7" s="14">
+      <c r="B11" s="14">
+        <v>16</v>
+      </c>
+      <c r="C11" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D11" s="19">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
-        <v>12</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="F11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
         <v>16</v>
       </c>
-      <c r="C8" s="14">
+      <c r="B13" s="14">
+        <v>20</v>
+      </c>
+      <c r="C13" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D13" s="20">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
-        <v>16</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="F13" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
         <v>20</v>
       </c>
-      <c r="C9" s="14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D9" s="21">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
-        <v>20</v>
-      </c>
-      <c r="B10" s="14">
+      <c r="B14" s="14">
         <v>32</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D14" s="20">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
         <v>32</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B16" s="14">
         <v>104</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C16" s="14">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D16" s="19">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="E16" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
         <v>104</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B17" s="14">
         <v>112</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C17" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D17" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="E17" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20">
+        <f>8+16+8</f>
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <f>C20/8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15">
-        <v>40</v>
-      </c>
-      <c r="D15">
-        <f>C15/8</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16">
+      <c r="C21">
         <v>112</v>
       </c>
-      <c r="D16">
+      <c r="D21">
         <v>14</v>
       </c>
     </row>

--- a/transm/flusso_modifica_parametro.xlsx
+++ b/transm/flusso_modifica_parametro.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.solazzi\Documents\sviluppo\src\arduino\a01\transm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo\Documents\Sviluppo\Arduino\a01\transm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B25B55-6CF7-4DFB-8106-18947DC53B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="1524" windowWidth="23040" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="1530" windowWidth="23040" windowHeight="12210" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">codifica_stringhe!$A$17:$J$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">codifica_stringhe_bin!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="189">
   <si>
     <t>nexus 5</t>
   </si>
@@ -573,9 +572,6 @@
     <t>num bit max</t>
   </si>
   <si>
-    <t>Bit Da ( 0 = MSB )</t>
-  </si>
-  <si>
     <t>Bit A</t>
   </si>
   <si>
@@ -598,12 +594,18 @@
   </si>
   <si>
     <t>fine messaggio: 4 bit se I bit di valore / 8 hanno resto, 8 se non hanno resto o se il bit 7 = 0</t>
+  </si>
+  <si>
+    <t>Bit Da ( 0 = LSB )</t>
+  </si>
+  <si>
+    <t>sempre presente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -686,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -745,6 +747,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,7 +758,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1064,21 +1069,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="101.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1106,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1117,7 +1122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1131,7 +1136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1142,7 +1147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1156,7 +1161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1167,7 +1172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1181,7 +1186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1192,7 +1197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1206,7 +1211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1224,37 +1229,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>78</v>
       </c>
@@ -1274,7 +1279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1295,7 +1300,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A10" si="1">B3+1</f>
         <v>1</v>
@@ -1314,7 +1319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1333,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1352,7 +1357,7 @@
         <v>1595582400</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1374,7 +1379,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1396,7 +1401,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>B7+1</f>
         <v>16</v>
@@ -1418,7 +1423,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1440,7 +1445,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
@@ -1449,10 +1454,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
@@ -1461,14 +1466,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
@@ -1500,7 +1505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1526,7 +1531,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -1552,7 +1557,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -1604,7 +1609,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -1630,7 +1635,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -1656,7 +1661,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1682,7 +1687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1708,7 +1713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -1734,7 +1739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -1760,7 +1765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1786,7 +1791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1812,7 +1817,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -1838,7 +1843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1864,7 +1869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -1890,7 +1895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -1916,7 +1921,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>71</v>
       </c>
@@ -1942,7 +1947,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -1978,24 +1983,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -2018,7 +2023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -2029,7 +2034,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2043,7 +2048,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -2057,7 +2062,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -2071,7 +2076,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -2085,7 +2090,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -2099,7 +2104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -2113,7 +2118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -2127,7 +2132,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -2141,7 +2146,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -2158,7 +2163,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -2172,7 +2177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2189,7 +2194,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -2210,22 +2215,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2242,7 +2247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2256,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2267,7 +2272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2281,7 +2286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2295,7 +2300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2309,7 +2314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2320,7 +2325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2334,7 +2339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2345,7 +2350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2359,7 +2364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2370,7 +2375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -2382,40 +2387,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>155</v>
       </c>
@@ -2444,7 +2449,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -2471,7 +2476,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f t="shared" ref="A4:A12" si="1">B3+1</f>
         <v>4</v>
@@ -2483,7 +2488,7 @@
       <c r="C4" s="9">
         <v>8</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="24">
         <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -2500,7 +2505,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f>B4+1</f>
         <v>12</v>
@@ -2512,7 +2517,7 @@
       <c r="C5" s="9">
         <v>8</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="10" t="s">
         <v>141</v>
       </c>
@@ -2525,7 +2530,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f>B5+1</f>
         <v>20</v>
@@ -2537,7 +2542,7 @@
       <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="10" t="s">
         <v>83</v>
       </c>
@@ -2552,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>B6+1</f>
         <v>24</v>
@@ -2564,7 +2569,7 @@
       <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="10" t="s">
         <v>143</v>
       </c>
@@ -2579,7 +2584,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f>B7+1</f>
         <v>28</v>
@@ -2591,7 +2596,7 @@
       <c r="C8" s="9">
         <v>40</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="24">
         <v>6</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -2610,7 +2615,7 @@
         <v>1595582400</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2622,7 +2627,7 @@
       <c r="C9" s="9">
         <v>4</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="10" t="s">
         <v>87</v>
       </c>
@@ -2639,7 +2644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2651,7 +2656,7 @@
       <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="10" t="s">
         <v>128</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2678,7 +2683,7 @@
       <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="10" t="s">
         <v>85</v>
       </c>
@@ -2693,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2723,7 +2728,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>151</v>
       </c>
@@ -2734,7 +2739,7 @@
       <c r="D13" s="3"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>152</v>
       </c>
@@ -2742,14 +2747,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -2766,7 +2771,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -2783,7 +2788,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>158</v>
       </c>
@@ -2801,7 +2806,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -2815,7 +2820,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -2832,7 +2837,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -2849,7 +2854,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -2863,7 +2868,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>158</v>
       </c>
@@ -2880,7 +2885,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -2894,7 +2899,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -2908,7 +2913,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>158</v>
       </c>
@@ -2925,7 +2930,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -2948,29 +2953,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891FBF59-F0FC-444E-A88D-2DA82726946C}">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="64.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="64.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>180</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>154</v>
@@ -2979,13 +2984,16 @@
         <v>157</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>0</v>
       </c>
@@ -3003,11 +3011,14 @@
       <c r="E2" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -3025,11 +3036,14 @@
       <c r="E3" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -3047,11 +3061,14 @@
       <c r="E4" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -3069,11 +3086,14 @@
       <c r="E5" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -3091,11 +3111,14 @@
       <c r="E6" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -3113,11 +3136,14 @@
       <c r="E7" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -3135,24 +3161,28 @@
       <c r="E8" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="22"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B10" s="14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C10" s="14">
         <f t="shared" si="0"/>
@@ -3165,19 +3195,22 @@
       <c r="E10" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="G10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B11" s="14">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" s="14">
         <f t="shared" si="0"/>
@@ -3190,27 +3223,31 @@
       <c r="E11" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F12" s="22"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B13" s="14">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C13" s="14">
         <f t="shared" si="0"/>
@@ -3223,16 +3260,19 @@
       <c r="E13" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B14" s="14">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C14" s="14">
         <f t="shared" si="0"/>
@@ -3245,19 +3285,23 @@
       <c r="E14" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F15" s="22"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>32</v>
       </c>
@@ -3273,16 +3317,19 @@
         <v>9</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="G16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>104</v>
       </c>
@@ -3298,13 +3345,16 @@
         <v>1</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -3317,7 +3367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>178</v>
       </c>

--- a/transm/flusso_modifica_parametro.xlsx
+++ b/transm/flusso_modifica_parametro.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo\Documents\Sviluppo\Arduino\a01\transm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.solazzi\Documents\sviluppo\src\arduino\a01\transm\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D35D33-7313-4E66-B095-F467C1BDFF13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1530" windowWidth="23040" windowHeight="12210" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">codifica_stringhe!$A$17:$J$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">codifica_stringhe_bin!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -605,7 +606,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,7 +759,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1069,7 +1070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1229,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -1983,7 +1984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2215,7 +2216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2387,7 +2388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2953,11 +2954,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/transm/flusso_modifica_parametro.xlsx
+++ b/transm/flusso_modifica_parametro.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.solazzi\Documents\sviluppo\src\arduino\a01\transm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo\Documents\Sviluppo\Arduino\a01\transm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D35D33-7313-4E66-B095-F467C1BDFF13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">codifica_stringhe!$A$17:$J$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">codifica_stringhe_bin!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="190">
   <si>
     <t>nexus 5</t>
   </si>
@@ -601,12 +600,15 @@
   </si>
   <si>
     <t>sempre presente</t>
+  </si>
+  <si>
+    <t>segno algebrico : 0 negativo, 1 positivo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -759,7 +761,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1070,7 +1072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1230,7 +1232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -1984,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2216,7 +2218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2388,7 +2390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2954,11 +2956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3116,7 +3118,7 @@
         <v>146</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3330,7 +3332,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>104</v>
       </c>
@@ -3355,7 +3357,18 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -3368,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>178</v>
       </c>

--- a/transm/flusso_modifica_parametro.xlsx
+++ b/transm/flusso_modifica_parametro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2393,7 +2393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2957,10 +2957,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,7 +3332,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>104</v>
       </c>
@@ -3357,18 +3357,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -3381,7 +3370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>178</v>
       </c>

--- a/transm/flusso_modifica_parametro.xlsx
+++ b/transm/flusso_modifica_parametro.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="193">
   <si>
     <t>nexus 5</t>
   </si>
@@ -603,6 +603,15 @@
   </si>
   <si>
     <t>segno algebrico : 0 negativo, 1 positivo</t>
+  </si>
+  <si>
+    <t>Section Param Code</t>
+  </si>
+  <si>
+    <t>Section payload and closure</t>
+  </si>
+  <si>
+    <t>Section head and meta</t>
   </si>
 </sst>
 </file>
@@ -691,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -745,6 +754,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1253,14 +1265,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2411,17 +2423,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2491,7 +2503,7 @@
       <c r="C4" s="9">
         <v>8</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="25">
         <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -2520,7 +2532,7 @@
       <c r="C5" s="9">
         <v>8</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="10" t="s">
         <v>141</v>
       </c>
@@ -2545,7 +2557,7 @@
       <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="10" t="s">
         <v>83</v>
       </c>
@@ -2572,7 +2584,7 @@
       <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="10" t="s">
         <v>143</v>
       </c>
@@ -2599,7 +2611,7 @@
       <c r="C8" s="9">
         <v>40</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="25">
         <v>6</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -2630,7 +2642,7 @@
       <c r="C9" s="9">
         <v>4</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="10" t="s">
         <v>87</v>
       </c>
@@ -2659,7 +2671,7 @@
       <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="10" t="s">
         <v>128</v>
       </c>
@@ -2686,7 +2698,7 @@
       <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="10" t="s">
         <v>85</v>
       </c>
@@ -2957,10 +2969,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,9 +2983,10 @@
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="64.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>187</v>
       </c>
@@ -2996,7 +3009,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>0</v>
       </c>
@@ -3020,8 +3033,11 @@
       <c r="G2" s="13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K2" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -3045,8 +3061,9 @@
       <c r="G3" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -3070,8 +3087,9 @@
       <c r="G4" s="10" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -3095,8 +3113,9 @@
       <c r="G5" s="10" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -3120,8 +3139,9 @@
       <c r="G6" s="10" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -3145,8 +3165,9 @@
       <c r="G7" s="10" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -3170,8 +3191,9 @@
       <c r="G8" s="10" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -3179,8 +3201,9 @@
       <c r="E9" s="15"/>
       <c r="F9" s="22"/>
       <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0</v>
       </c>
@@ -3207,8 +3230,9 @@
       <c r="H10" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -3235,8 +3259,9 @@
       <c r="H11" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3244,8 +3269,9 @@
       <c r="E12" s="15"/>
       <c r="F12" s="22"/>
       <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0</v>
       </c>
@@ -3269,8 +3295,11 @@
       <c r="G13" s="10" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K13" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>4</v>
       </c>
@@ -3294,8 +3323,9 @@
       <c r="G14" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -3304,7 +3334,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>32</v>
       </c>
@@ -3331,8 +3361,11 @@
       <c r="H16" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="K16" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>104</v>
       </c>
@@ -3356,8 +3389,9 @@
       <c r="G17" s="10" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K17" s="25"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -3370,7 +3404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>178</v>
       </c>
@@ -3382,6 +3416,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K2:K11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
